--- a/排序算法比较.xlsx
+++ b/排序算法比较.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,9 +59,6 @@
     <t>0.000018</t>
   </si>
   <si>
-    <t>0.001335</t>
-  </si>
-  <si>
     <t>n=pow(10, 2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +82,29 @@
   </si>
   <si>
     <t>704982703</t>
+  </si>
+  <si>
+    <t>0.001352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.386872</t>
+  </si>
+  <si>
+    <t>归并排序算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000009</t>
+  </si>
+  <si>
+    <t>0.000077</t>
+  </si>
+  <si>
+    <t>0.009121</t>
+  </si>
+  <si>
+    <t>1668928</t>
   </si>
 </sst>
 </file>
@@ -126,23 +147,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,84 +472,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -530,75 +558,107 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>4949</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>499499</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.16516400000000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>49994999</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>4950</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
         <v>499500</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.123055</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="3">
+        <v>0.14425099999999999</v>
+      </c>
+      <c r="H5" s="1">
         <v>49995000</v>
       </c>
-      <c r="I5" s="3">
-        <v>10.974777</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>672</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9976</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>133616</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/排序算法比较.xlsx
+++ b/排序算法比较.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +104,26 @@
   </si>
   <si>
     <t>1668928</t>
+  </si>
+  <si>
+    <t>堆排序算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000010</t>
+  </si>
+  <si>
+    <t>0.000145</t>
+  </si>
+  <si>
+    <t>0.021569</t>
+  </si>
+  <si>
+    <t>1497203</t>
   </si>
 </sst>
 </file>
@@ -147,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -165,10 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,42 +518,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,15 +675,47 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6">
+        <v>499</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8313</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.5169999999999999E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>116977</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/排序算法比较.xlsx
+++ b/排序算法比较.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>1497203</t>
+  </si>
+  <si>
+    <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704982704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.581280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -184,16 +208,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,20 +542,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -546,14 +570,14 @@
         <v>13</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,6 +729,38 @@
       </c>
       <c r="J7" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4950</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>499500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.104185</v>
+      </c>
+      <c r="H8" s="1">
+        <v>49995000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/排序算法比较.xlsx
+++ b/排序算法比较.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>算法类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,34 @@
   </si>
   <si>
     <t>10.581280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,7 +569,7 @@
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
@@ -551,7 +579,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -575,7 +603,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
@@ -603,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -635,7 +663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -667,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -699,7 +727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -731,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -761,6 +789,41 @@
       </c>
       <c r="J8" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>300</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
